--- a/October'21/02.10.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/October'21/02.10.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -1293,7 +1293,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
